--- a/test/analysisresult/average_ranking.xlsx
+++ b/test/analysisresult/average_ranking.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="608">
   <si>
     <t>threetable1</t>
   </si>
@@ -591,6 +591,1158 @@
   </si>
   <si>
     <t>Av_z-score</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>cu-0.025</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>cu-0.129</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>pla-0.075</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>pla-0.225</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>cu-0.025</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>cu-0.129</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>pla-0.075</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>pla-0.225</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>cu-0.025</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>cu-0.129</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>pla-0.075</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>pla-0.225</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>cu-0.025</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>cu-0.129</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>pla-0.075</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>pla-0.225</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>cu-0.025</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>cu-0.129</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>pla-0.075</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>pla-0.225</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>cu-0.025</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>cu-0.129</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>pla-0.075</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>pla-0.225</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>cu-0.025</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>cu-0.129</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>pla-0.075</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>pla-0.225</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>cu-0.025</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>cu-0.129</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>pla-0.075</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>pla-0.225</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>cu-0.025</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>cu-0.129</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>pla-0.075</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>pla-0.225</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>cu-0.025</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>cu-0.129</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>pla-0.075</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>pla-0.225</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>cu-0.025</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>cu-0.129</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>pla-0.075</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>pla-0.225</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>cu-0.025</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>cu-0.129</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>pla-0.075</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>pla-0.225</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>cu-0.025</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>cu-0.129</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>pla-0.075</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>pla-0.225</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>cu-0.025</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>cu-0.129</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>pla-0.075</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>pla-0.225</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>cu-0.025</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>cu-0.129</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>pla-0.075</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>pla-0.225</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>cu-0.025</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>cu-0.129</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>pla-0.075</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>pla-0.225</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>cu-0.025</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>cu-0.129</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>pla-0.075</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>pla-0.225</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>cu-0.025</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>cu-0.129</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>pla-0.075</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>pla-0.225</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>cu-0.025</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>cu-0.129</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>pla-0.075</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>pla-0.225</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>cu-0.025</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>cu-0.129</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>pla-0.075</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>pla-0.225</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>cu-0.025</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>cu-0.129</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>pla-0.075</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>pla-0.225</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>cu-0.025</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>cu-0.129</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>pla-0.075</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>pla-0.225</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>cu-0.025</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>cu-0.129</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>pla-0.075</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>pla-0.225</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>cu-0.025</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>cu-0.129</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>pla-0.075</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>HDR</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>pla-0.225</t>
   </si>
   <si>
     <t>1</t>
@@ -747,54 +1899,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>192</v>
+        <v>576</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>194</v>
+        <v>578</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>196</v>
+        <v>580</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>198</v>
+        <v>582</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>200</v>
+        <v>584</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>202</v>
+        <v>586</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>204</v>
+        <v>588</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>206</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>193</v>
+        <v>577</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>195</v>
+        <v>579</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>197</v>
+        <v>581</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>199</v>
+        <v>583</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>201</v>
+        <v>585</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>203</v>
+        <v>587</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>205</v>
+        <v>589</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>207</v>
+        <v>591</v>
       </c>
     </row>
     <row r="3">
@@ -1208,54 +2360,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>208</v>
+        <v>592</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>210</v>
+        <v>594</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>212</v>
+        <v>596</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>214</v>
+        <v>598</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>216</v>
+        <v>600</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>218</v>
+        <v>602</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>220</v>
+        <v>604</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>222</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>209</v>
+        <v>593</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>211</v>
+        <v>595</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>213</v>
+        <v>597</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>215</v>
+        <v>599</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>217</v>
+        <v>601</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>219</v>
+        <v>603</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>221</v>
+        <v>605</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>223</v>
+        <v>607</v>
       </c>
     </row>
     <row r="3">
